--- a/results/221021_femalesSBP_linreg.xlsx
+++ b/results/221021_femalesSBP_linreg.xlsx
@@ -431,19 +431,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3.76</v>
+        <v>4.54</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95</v>
+        <v>1.81</v>
       </c>
       <c r="E2" t="n">
-        <v>6.56</v>
+        <v>7.28</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00894</v>
+        <v>0.00124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.10847</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="3">
@@ -454,19 +454,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3.36</v>
+        <v>3.74</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07</v>
+        <v>0.54</v>
       </c>
       <c r="E3" t="n">
-        <v>6.65</v>
+        <v>6.94</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04524</v>
+        <v>0.02236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03937</v>
+        <v>0.02741</v>
       </c>
     </row>
     <row r="4">
@@ -477,19 +477,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>3.88</v>
+        <v>4.36</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="E4" t="n">
-        <v>6.96</v>
+        <v>7.39</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01385</v>
+        <v>0.00497</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00656</v>
+        <v>0.00396</v>
       </c>
     </row>
     <row r="5">
@@ -500,19 +500,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.19</v>
+        <v>0.64</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.21</v>
+        <v>-3.44</v>
       </c>
       <c r="E5" t="n">
-        <v>3.83</v>
+        <v>4.72</v>
       </c>
       <c r="F5" t="n">
-        <v>0.92565</v>
+        <v>0.75688</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44024</v>
+        <v>0.50157</v>
       </c>
     </row>
     <row r="6">
@@ -523,19 +523,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>5.3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.21</v>
+        <v>2.64</v>
       </c>
       <c r="E6" t="n">
-        <v>7.51</v>
+        <v>7.96</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00038</v>
+        <v>0.00012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03969</v>
+        <v>0.03499</v>
       </c>
     </row>
     <row r="7">
@@ -546,19 +546,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>3.57</v>
+        <v>3.86</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="E7" t="n">
-        <v>6.35</v>
+        <v>6.67</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01183</v>
+        <v>0.00736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.32747</v>
+        <v>0.38106</v>
       </c>
     </row>
     <row r="8">
@@ -569,19 +569,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>3.17</v>
+        <v>3.71</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41</v>
+        <v>0.93</v>
       </c>
       <c r="E8" t="n">
-        <v>5.93</v>
+        <v>6.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02471</v>
+        <v>0.00931</v>
       </c>
       <c r="G8" t="n">
-        <v>0.39261</v>
+        <v>0.36459</v>
       </c>
     </row>
     <row r="9">
@@ -592,19 +592,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8</v>
+        <v>-0.19</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.01</v>
+        <v>-3.43</v>
       </c>
       <c r="E9" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.62151</v>
+        <v>0.90706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.13313</v>
+        <v>0.19079</v>
       </c>
     </row>
     <row r="10">
@@ -615,19 +615,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.56</v>
+        <v>3.11</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.28</v>
+        <v>0.23</v>
       </c>
       <c r="E10" t="n">
-        <v>5.41</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07724</v>
+        <v>0.03436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.45083</v>
+        <v>0.50781</v>
       </c>
     </row>
     <row r="11">
@@ -638,19 +638,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.45</v>
+        <v>-1.38</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.3</v>
+        <v>-5.31</v>
       </c>
       <c r="E11" t="n">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="F11" t="n">
-        <v>0.45969</v>
+        <v>0.4917</v>
       </c>
       <c r="G11" t="n">
-        <v>0.48055</v>
+        <v>0.52876</v>
       </c>
     </row>
     <row r="12">
@@ -661,19 +661,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.97</v>
+        <v>-0.94</v>
       </c>
       <c r="E12" t="n">
-        <v>4.53</v>
+        <v>4.39</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2019</v>
+        <v>0.2033</v>
       </c>
       <c r="G12" t="n">
-        <v>0.10847</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="13">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.66</v>
+        <v>-0.74</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.14</v>
+        <v>-4.13</v>
       </c>
       <c r="E13" t="n">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="F13" t="n">
-        <v>0.70793</v>
+        <v>0.6648</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03937</v>
+        <v>0.02741</v>
       </c>
     </row>
     <row r="14">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.93</v>
+        <v>-2.9</v>
       </c>
       <c r="E14" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="F14" t="n">
-        <v>0.86399</v>
+        <v>0.86826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00656</v>
+        <v>0.00396</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.84</v>
+        <v>-3.76</v>
       </c>
       <c r="E15" t="n">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="F15" t="n">
-        <v>0.92599</v>
+        <v>0.90569</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44024</v>
+        <v>0.50157</v>
       </c>
     </row>
     <row r="16">
@@ -753,19 +753,19 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="E16" t="n">
-        <v>5.34</v>
+        <v>5.18</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06867</v>
+        <v>0.06812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03969</v>
+        <v>0.03499</v>
       </c>
     </row>
     <row r="17">
@@ -776,19 +776,19 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.39</v>
+        <v>-0.33</v>
       </c>
       <c r="E17" t="n">
         <v>5.72</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08653</v>
+        <v>0.08071</v>
       </c>
       <c r="G17" t="n">
-        <v>0.32747</v>
+        <v>0.38106</v>
       </c>
     </row>
     <row r="18">
@@ -799,19 +799,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>5.26</v>
+        <v>5.18</v>
       </c>
       <c r="D18" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="E18" t="n">
-        <v>8.4</v>
+        <v>8.27</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00117</v>
+        <v>0.00116</v>
       </c>
       <c r="G18" t="n">
-        <v>0.39261</v>
+        <v>0.36459</v>
       </c>
     </row>
     <row r="19">
@@ -822,19 +822,19 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E19" t="n">
-        <v>5.74</v>
+        <v>5.62</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03539</v>
+        <v>0.03851</v>
       </c>
       <c r="G19" t="n">
-        <v>0.13313</v>
+        <v>0.19079</v>
       </c>
     </row>
     <row r="20">
@@ -845,19 +845,19 @@
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.01</v>
+        <v>-1.96</v>
       </c>
       <c r="E20" t="n">
-        <v>5.08</v>
+        <v>5.06</v>
       </c>
       <c r="F20" t="n">
-        <v>0.39384</v>
+        <v>0.38464</v>
       </c>
       <c r="G20" t="n">
-        <v>0.45083</v>
+        <v>0.50781</v>
       </c>
     </row>
     <row r="21">
@@ -868,19 +868,19 @@
         <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.03</v>
+        <v>-2.04</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.65</v>
+        <v>-5.63</v>
       </c>
       <c r="E21" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="F21" t="n">
-        <v>0.27083</v>
+        <v>0.26206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.48055</v>
+        <v>0.52876</v>
       </c>
     </row>
   </sheetData>
